--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ052.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ052.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F119AEEC-7868-4AA8-B64C-C33614A50FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A06AD2-514A-451D-B6B9-D19DB0BD5A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>YYYYMMDD</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -445,6 +441,11 @@
   <si>
     <t xml:space="preserve">SubmitKey= , AND CustId= </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1063,10 +1064,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1146,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1164,7 +1165,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1225,7 +1226,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1456,7 +1457,7 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,10 +1484,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>22</v>
@@ -1995,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -2021,7 +2022,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -2032,7 +2033,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>61</v>
@@ -2043,7 +2044,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
@@ -2054,43 +2055,43 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
